--- a/6/1/1/3/8/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/8/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10623,13 +10626,13 @@
         <v>503</v>
       </c>
       <c r="O173">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="P173">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Q173">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="R173">
         <v>112</v>
@@ -10646,7 +10649,7 @@
         <v>798</v>
       </c>
       <c r="D174">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="E174">
         <v>2599</v>
@@ -10661,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="I174">
-        <v>6109</v>
+        <v>6108</v>
       </c>
       <c r="J174">
-        <v>5997</v>
+        <v>5996</v>
       </c>
       <c r="K174">
         <v>194</v>
@@ -10679,13 +10682,13 @@
         <v>458</v>
       </c>
       <c r="O174">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="P174">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="Q174">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="R174">
         <v>112</v>
@@ -10696,7 +10699,7 @@
         <v>189</v>
       </c>
       <c r="B175">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C175">
         <v>470</v>
@@ -10735,15 +10738,71 @@
         <v>534</v>
       </c>
       <c r="O175">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="P175">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q175">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="R175">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="A176" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176">
+        <v>246</v>
+      </c>
+      <c r="C176">
+        <v>135</v>
+      </c>
+      <c r="D176">
+        <v>2698</v>
+      </c>
+      <c r="E176">
+        <v>2563</v>
+      </c>
+      <c r="F176">
+        <v>112</v>
+      </c>
+      <c r="G176">
+        <v>112</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>5373</v>
+      </c>
+      <c r="J176">
+        <v>5261</v>
+      </c>
+      <c r="K176">
+        <v>209</v>
+      </c>
+      <c r="L176">
+        <v>632</v>
+      </c>
+      <c r="M176">
+        <v>1755</v>
+      </c>
+      <c r="N176">
+        <v>515</v>
+      </c>
+      <c r="O176">
+        <v>404</v>
+      </c>
+      <c r="P176">
+        <v>449</v>
+      </c>
+      <c r="Q176">
+        <v>1297</v>
+      </c>
+      <c r="R176">
         <v>112</v>
       </c>
     </row>

--- a/6/1/1/3/8/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/8/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10643,13 +10646,13 @@
         <v>188</v>
       </c>
       <c r="B174">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C174">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D174">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="E174">
         <v>2599</v>
@@ -10664,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="I174">
-        <v>6108</v>
+        <v>6107</v>
       </c>
       <c r="J174">
-        <v>5996</v>
+        <v>5995</v>
       </c>
       <c r="K174">
         <v>194</v>
@@ -10679,16 +10682,16 @@
         <v>1798</v>
       </c>
       <c r="N174">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O174">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="P174">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="Q174">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="R174">
         <v>112</v>
@@ -10699,13 +10702,13 @@
         <v>189</v>
       </c>
       <c r="B175">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C175">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D175">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="E175">
         <v>2854</v>
@@ -10720,10 +10723,10 @@
         <v>0</v>
       </c>
       <c r="I175">
-        <v>6290</v>
+        <v>6288</v>
       </c>
       <c r="J175">
-        <v>6178</v>
+        <v>6176</v>
       </c>
       <c r="K175">
         <v>123</v>
@@ -10735,16 +10738,16 @@
         <v>2048</v>
       </c>
       <c r="N175">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O175">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="P175">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Q175">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="R175">
         <v>112</v>
@@ -10755,13 +10758,13 @@
         <v>190</v>
       </c>
       <c r="B176">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C176">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D176">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="E176">
         <v>2563</v>
@@ -10776,10 +10779,10 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>5373</v>
+        <v>5371</v>
       </c>
       <c r="J176">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="K176">
         <v>209</v>
@@ -10791,18 +10794,74 @@
         <v>1755</v>
       </c>
       <c r="N176">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="O176">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P176">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Q176">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="R176">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177">
+        <v>301</v>
+      </c>
+      <c r="C177">
+        <v>189</v>
+      </c>
+      <c r="D177">
+        <v>2770</v>
+      </c>
+      <c r="E177">
+        <v>2581</v>
+      </c>
+      <c r="F177">
+        <v>112</v>
+      </c>
+      <c r="G177">
+        <v>112</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>5463</v>
+      </c>
+      <c r="J177">
+        <v>5352</v>
+      </c>
+      <c r="K177">
+        <v>175</v>
+      </c>
+      <c r="L177">
+        <v>659</v>
+      </c>
+      <c r="M177">
+        <v>1706</v>
+      </c>
+      <c r="N177">
+        <v>671</v>
+      </c>
+      <c r="O177">
+        <v>388</v>
+      </c>
+      <c r="P177">
+        <v>430</v>
+      </c>
+      <c r="Q177">
+        <v>1323</v>
+      </c>
+      <c r="R177">
         <v>112</v>
       </c>
     </row>

--- a/6/1/1/3/8/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/8/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10702,13 +10705,13 @@
         <v>189</v>
       </c>
       <c r="B175">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C175">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D175">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="E175">
         <v>2854</v>
@@ -10723,10 +10726,10 @@
         <v>0</v>
       </c>
       <c r="I175">
-        <v>6288</v>
+        <v>6286</v>
       </c>
       <c r="J175">
-        <v>6176</v>
+        <v>6174</v>
       </c>
       <c r="K175">
         <v>123</v>
@@ -10738,13 +10741,13 @@
         <v>2048</v>
       </c>
       <c r="N175">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="O175">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="P175">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="Q175">
         <v>1256</v>
@@ -10758,13 +10761,13 @@
         <v>190</v>
       </c>
       <c r="B176">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C176">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D176">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="E176">
         <v>2563</v>
@@ -10779,10 +10782,10 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>5371</v>
+        <v>5368</v>
       </c>
       <c r="J176">
-        <v>5260</v>
+        <v>5257</v>
       </c>
       <c r="K176">
         <v>209</v>
@@ -10794,13 +10797,13 @@
         <v>1755</v>
       </c>
       <c r="N176">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="O176">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P176">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Q176">
         <v>1290</v>
@@ -10814,13 +10817,13 @@
         <v>191</v>
       </c>
       <c r="B177">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C177">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D177">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="E177">
         <v>2581</v>
@@ -10835,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="I177">
-        <v>5463</v>
+        <v>5460</v>
       </c>
       <c r="J177">
-        <v>5352</v>
+        <v>5349</v>
       </c>
       <c r="K177">
         <v>175</v>
@@ -10847,21 +10850,77 @@
         <v>659</v>
       </c>
       <c r="M177">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="N177">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="O177">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P177">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="Q177">
         <v>1323</v>
       </c>
       <c r="R177">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178">
+        <v>357</v>
+      </c>
+      <c r="C178">
+        <v>245</v>
+      </c>
+      <c r="D178">
+        <v>2806</v>
+      </c>
+      <c r="E178">
+        <v>2561</v>
+      </c>
+      <c r="F178">
+        <v>112</v>
+      </c>
+      <c r="G178">
+        <v>112</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>5478</v>
+      </c>
+      <c r="J178">
+        <v>5367</v>
+      </c>
+      <c r="K178">
+        <v>290</v>
+      </c>
+      <c r="L178">
+        <v>731</v>
+      </c>
+      <c r="M178">
+        <v>1626</v>
+      </c>
+      <c r="N178">
+        <v>660</v>
+      </c>
+      <c r="O178">
+        <v>383</v>
+      </c>
+      <c r="P178">
+        <v>392</v>
+      </c>
+      <c r="Q178">
+        <v>1284</v>
+      </c>
+      <c r="R178">
         <v>112</v>
       </c>
     </row>
